--- a/Cronograma PI CEDIF - Funcion Educacion.xlsx
+++ b/Cronograma PI CEDIF - Funcion Educacion.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GORE 2020\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\RepositorioORFEI\Gestion-ORFEI\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B35C724B-726F-40A2-B37D-0EDD497F10A2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D54B1A5D-79C4-4EE7-9552-698087793A68}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="180" yWindow="15" windowWidth="21450" windowHeight="20550" tabRatio="483" xr2:uid="{FE7A8B72-E8EC-485F-AD9E-222BE66E5DE3}"/>
+    <workbookView xWindow="345" yWindow="6000" windowWidth="13800" windowHeight="9495" tabRatio="483" xr2:uid="{FE7A8B72-E8EC-485F-AD9E-222BE66E5DE3}"/>
   </bookViews>
   <sheets>
     <sheet name="CEDIF" sheetId="1" r:id="rId1"/>
@@ -1879,6 +1879,30 @@
     <xf numFmtId="0" fontId="9" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="15" fontId="3" fillId="0" borderId="51" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="15" fontId="3" fillId="0" borderId="52" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="15" fontId="3" fillId="0" borderId="53" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="15" fontId="3" fillId="0" borderId="54" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="15" fontId="3" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="15" fontId="3" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="15" fontId="3" fillId="0" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="15" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
     <xf numFmtId="15" fontId="3" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -1899,6 +1923,12 @@
     </xf>
     <xf numFmtId="15" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="15" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="15" fontId="3" fillId="0" borderId="50" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -1995,36 +2025,6 @@
     </xf>
     <xf numFmtId="0" fontId="16" fillId="11" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="15" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="15" fontId="3" fillId="0" borderId="50" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="15" fontId="3" fillId="0" borderId="51" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="15" fontId="3" fillId="0" borderId="52" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="15" fontId="3" fillId="0" borderId="53" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="15" fontId="3" fillId="0" borderId="54" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="15" fontId="3" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="15" fontId="3" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="15" fontId="3" fillId="0" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="15" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -2348,10 +2348,10 @@
   <dimension ref="B4:BV90"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane xSplit="6" ySplit="9" topLeftCell="G19" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="6" ySplit="9" topLeftCell="G75" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="G1" sqref="G1"/>
       <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
-      <selection pane="bottomRight" activeCell="F85" sqref="F85"/>
+      <selection pane="bottomRight" activeCell="D69" sqref="D69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
@@ -2370,99 +2370,99 @@
       <c r="B5" s="32" t="s">
         <v>0</v>
       </c>
-      <c r="C5" s="119" t="s">
+      <c r="C5" s="129" t="s">
         <v>1</v>
       </c>
-      <c r="D5" s="121" t="s">
+      <c r="D5" s="131" t="s">
         <v>2</v>
       </c>
-      <c r="E5" s="100" t="s">
+      <c r="E5" s="110" t="s">
         <v>3</v>
       </c>
-      <c r="F5" s="100" t="s">
+      <c r="F5" s="110" t="s">
         <v>98</v>
       </c>
-      <c r="G5" s="106" t="s">
+      <c r="G5" s="116" t="s">
         <v>94</v>
       </c>
-      <c r="H5" s="107"/>
-      <c r="I5" s="107"/>
-      <c r="J5" s="107"/>
-      <c r="K5" s="107"/>
-      <c r="L5" s="107"/>
-      <c r="M5" s="107"/>
-      <c r="N5" s="107"/>
-      <c r="O5" s="107"/>
-      <c r="P5" s="107"/>
-      <c r="Q5" s="107"/>
-      <c r="R5" s="107"/>
-      <c r="S5" s="107"/>
-      <c r="T5" s="107"/>
-      <c r="U5" s="107"/>
-      <c r="V5" s="107"/>
-      <c r="W5" s="107"/>
-      <c r="X5" s="107"/>
-      <c r="Y5" s="107"/>
-      <c r="Z5" s="107"/>
-      <c r="AA5" s="107"/>
-      <c r="AB5" s="107"/>
-      <c r="AC5" s="107"/>
-      <c r="AD5" s="107"/>
-      <c r="AE5" s="107"/>
-      <c r="AF5" s="107"/>
-      <c r="AG5" s="107"/>
-      <c r="AH5" s="107"/>
-      <c r="AI5" s="107"/>
-      <c r="AJ5" s="107"/>
-      <c r="AK5" s="107"/>
-      <c r="AL5" s="107"/>
-      <c r="AM5" s="107"/>
-      <c r="AN5" s="107"/>
-      <c r="AO5" s="107"/>
-      <c r="AP5" s="107"/>
-      <c r="AQ5" s="108"/>
-      <c r="AR5" s="115" t="s">
+      <c r="H5" s="117"/>
+      <c r="I5" s="117"/>
+      <c r="J5" s="117"/>
+      <c r="K5" s="117"/>
+      <c r="L5" s="117"/>
+      <c r="M5" s="117"/>
+      <c r="N5" s="117"/>
+      <c r="O5" s="117"/>
+      <c r="P5" s="117"/>
+      <c r="Q5" s="117"/>
+      <c r="R5" s="117"/>
+      <c r="S5" s="117"/>
+      <c r="T5" s="117"/>
+      <c r="U5" s="117"/>
+      <c r="V5" s="117"/>
+      <c r="W5" s="117"/>
+      <c r="X5" s="117"/>
+      <c r="Y5" s="117"/>
+      <c r="Z5" s="117"/>
+      <c r="AA5" s="117"/>
+      <c r="AB5" s="117"/>
+      <c r="AC5" s="117"/>
+      <c r="AD5" s="117"/>
+      <c r="AE5" s="117"/>
+      <c r="AF5" s="117"/>
+      <c r="AG5" s="117"/>
+      <c r="AH5" s="117"/>
+      <c r="AI5" s="117"/>
+      <c r="AJ5" s="117"/>
+      <c r="AK5" s="117"/>
+      <c r="AL5" s="117"/>
+      <c r="AM5" s="117"/>
+      <c r="AN5" s="117"/>
+      <c r="AO5" s="117"/>
+      <c r="AP5" s="117"/>
+      <c r="AQ5" s="118"/>
+      <c r="AR5" s="125" t="s">
         <v>95</v>
       </c>
-      <c r="AS5" s="116"/>
-      <c r="AT5" s="116"/>
-      <c r="AU5" s="116"/>
-      <c r="AV5" s="116"/>
-      <c r="AW5" s="116"/>
-      <c r="AX5" s="116"/>
-      <c r="AY5" s="116"/>
-      <c r="AZ5" s="116"/>
-      <c r="BA5" s="116"/>
-      <c r="BB5" s="116"/>
-      <c r="BC5" s="116"/>
-      <c r="BD5" s="116"/>
-      <c r="BE5" s="116"/>
-      <c r="BF5" s="116"/>
-      <c r="BG5" s="116"/>
-      <c r="BH5" s="116"/>
-      <c r="BI5" s="116"/>
-      <c r="BJ5" s="116"/>
-      <c r="BK5" s="116"/>
-      <c r="BL5" s="116"/>
-      <c r="BM5" s="116"/>
-      <c r="BN5" s="116"/>
-      <c r="BO5" s="116"/>
-      <c r="BP5" s="116"/>
-      <c r="BQ5" s="116"/>
-      <c r="BR5" s="116"/>
-      <c r="BS5" s="116"/>
-      <c r="BT5" s="116"/>
-      <c r="BU5" s="116"/>
-      <c r="BV5" s="117"/>
+      <c r="AS5" s="126"/>
+      <c r="AT5" s="126"/>
+      <c r="AU5" s="126"/>
+      <c r="AV5" s="126"/>
+      <c r="AW5" s="126"/>
+      <c r="AX5" s="126"/>
+      <c r="AY5" s="126"/>
+      <c r="AZ5" s="126"/>
+      <c r="BA5" s="126"/>
+      <c r="BB5" s="126"/>
+      <c r="BC5" s="126"/>
+      <c r="BD5" s="126"/>
+      <c r="BE5" s="126"/>
+      <c r="BF5" s="126"/>
+      <c r="BG5" s="126"/>
+      <c r="BH5" s="126"/>
+      <c r="BI5" s="126"/>
+      <c r="BJ5" s="126"/>
+      <c r="BK5" s="126"/>
+      <c r="BL5" s="126"/>
+      <c r="BM5" s="126"/>
+      <c r="BN5" s="126"/>
+      <c r="BO5" s="126"/>
+      <c r="BP5" s="126"/>
+      <c r="BQ5" s="126"/>
+      <c r="BR5" s="126"/>
+      <c r="BS5" s="126"/>
+      <c r="BT5" s="126"/>
+      <c r="BU5" s="126"/>
+      <c r="BV5" s="127"/>
     </row>
     <row r="6" spans="2:74" ht="15" x14ac:dyDescent="0.25">
       <c r="B6" s="33" t="s">
         <v>107</v>
       </c>
-      <c r="C6" s="120"/>
-      <c r="D6" s="122"/>
-      <c r="E6" s="101"/>
-      <c r="F6" s="101"/>
+      <c r="C6" s="130"/>
+      <c r="D6" s="132"/>
+      <c r="E6" s="111"/>
+      <c r="F6" s="111"/>
       <c r="G6" s="17" t="s">
         <v>12</v>
       </c>
@@ -2669,13 +2669,13 @@
       </c>
     </row>
     <row r="7" spans="2:74" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="118" t="s">
+      <c r="B7" s="128" t="s">
         <v>93</v>
       </c>
-      <c r="C7" s="120"/>
-      <c r="D7" s="122"/>
-      <c r="E7" s="101"/>
-      <c r="F7" s="101"/>
+      <c r="C7" s="130"/>
+      <c r="D7" s="132"/>
+      <c r="E7" s="111"/>
+      <c r="F7" s="111"/>
       <c r="G7" s="21">
         <v>1</v>
       </c>
@@ -2882,79 +2882,79 @@
       </c>
     </row>
     <row r="8" spans="2:74" ht="28.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="118"/>
-      <c r="C8" s="120"/>
-      <c r="D8" s="122"/>
-      <c r="E8" s="101"/>
-      <c r="F8" s="101"/>
-      <c r="G8" s="109"/>
-      <c r="H8" s="110"/>
-      <c r="I8" s="110"/>
-      <c r="J8" s="110"/>
-      <c r="K8" s="110"/>
-      <c r="L8" s="110"/>
-      <c r="M8" s="111"/>
-      <c r="N8" s="112"/>
-      <c r="O8" s="113"/>
-      <c r="P8" s="113"/>
-      <c r="Q8" s="113"/>
-      <c r="R8" s="113"/>
+      <c r="B8" s="128"/>
+      <c r="C8" s="130"/>
+      <c r="D8" s="132"/>
+      <c r="E8" s="111"/>
+      <c r="F8" s="111"/>
+      <c r="G8" s="119"/>
+      <c r="H8" s="120"/>
+      <c r="I8" s="120"/>
+      <c r="J8" s="120"/>
+      <c r="K8" s="120"/>
+      <c r="L8" s="120"/>
+      <c r="M8" s="121"/>
+      <c r="N8" s="122"/>
+      <c r="O8" s="123"/>
+      <c r="P8" s="123"/>
+      <c r="Q8" s="123"/>
+      <c r="R8" s="123"/>
       <c r="S8" s="25"/>
       <c r="T8" s="25"/>
-      <c r="U8" s="112"/>
-      <c r="V8" s="113"/>
-      <c r="W8" s="113"/>
-      <c r="X8" s="113"/>
-      <c r="Y8" s="113"/>
+      <c r="U8" s="122"/>
+      <c r="V8" s="123"/>
+      <c r="W8" s="123"/>
+      <c r="X8" s="123"/>
+      <c r="Y8" s="123"/>
       <c r="Z8" s="25"/>
       <c r="AA8" s="25"/>
-      <c r="AB8" s="112"/>
-      <c r="AC8" s="113"/>
-      <c r="AD8" s="113"/>
-      <c r="AE8" s="113"/>
-      <c r="AF8" s="113"/>
+      <c r="AB8" s="122"/>
+      <c r="AC8" s="123"/>
+      <c r="AD8" s="123"/>
+      <c r="AE8" s="123"/>
+      <c r="AF8" s="123"/>
       <c r="AG8" s="25"/>
       <c r="AH8" s="25"/>
-      <c r="AI8" s="114"/>
-      <c r="AJ8" s="114"/>
-      <c r="AK8" s="114"/>
-      <c r="AL8" s="114"/>
-      <c r="AM8" s="114"/>
+      <c r="AI8" s="124"/>
+      <c r="AJ8" s="124"/>
+      <c r="AK8" s="124"/>
+      <c r="AL8" s="124"/>
+      <c r="AM8" s="124"/>
       <c r="AN8" s="25"/>
       <c r="AO8" s="26"/>
-      <c r="AP8" s="102"/>
-      <c r="AQ8" s="103"/>
-      <c r="AR8" s="103"/>
-      <c r="AS8" s="103"/>
-      <c r="AT8" s="104"/>
+      <c r="AP8" s="112"/>
+      <c r="AQ8" s="113"/>
+      <c r="AR8" s="113"/>
+      <c r="AS8" s="113"/>
+      <c r="AT8" s="114"/>
       <c r="AU8" s="14"/>
       <c r="AV8" s="14"/>
-      <c r="AW8" s="102"/>
-      <c r="AX8" s="103"/>
-      <c r="AY8" s="103"/>
-      <c r="AZ8" s="103"/>
-      <c r="BA8" s="104"/>
+      <c r="AW8" s="112"/>
+      <c r="AX8" s="113"/>
+      <c r="AY8" s="113"/>
+      <c r="AZ8" s="113"/>
+      <c r="BA8" s="114"/>
       <c r="BB8" s="14"/>
       <c r="BC8" s="14"/>
-      <c r="BD8" s="102"/>
-      <c r="BE8" s="103"/>
-      <c r="BF8" s="103"/>
-      <c r="BG8" s="103"/>
-      <c r="BH8" s="104"/>
+      <c r="BD8" s="112"/>
+      <c r="BE8" s="113"/>
+      <c r="BF8" s="113"/>
+      <c r="BG8" s="113"/>
+      <c r="BH8" s="114"/>
       <c r="BI8" s="14"/>
       <c r="BJ8" s="14"/>
-      <c r="BK8" s="102"/>
-      <c r="BL8" s="103"/>
-      <c r="BM8" s="103"/>
-      <c r="BN8" s="103"/>
-      <c r="BO8" s="104"/>
+      <c r="BK8" s="112"/>
+      <c r="BL8" s="113"/>
+      <c r="BM8" s="113"/>
+      <c r="BN8" s="113"/>
+      <c r="BO8" s="114"/>
       <c r="BP8" s="14"/>
       <c r="BQ8" s="14"/>
-      <c r="BR8" s="102"/>
-      <c r="BS8" s="103"/>
-      <c r="BT8" s="103"/>
-      <c r="BU8" s="103"/>
-      <c r="BV8" s="105"/>
+      <c r="BR8" s="112"/>
+      <c r="BS8" s="113"/>
+      <c r="BT8" s="113"/>
+      <c r="BU8" s="113"/>
+      <c r="BV8" s="115"/>
     </row>
     <row r="9" spans="2:74" s="2" customFormat="1" ht="9" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B9" s="34"/>
@@ -3115,10 +3115,10 @@
       <c r="C11" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="D11" s="132" t="s">
+      <c r="D11" s="108" t="s">
         <v>223</v>
       </c>
-      <c r="E11" s="133"/>
+      <c r="E11" s="109"/>
       <c r="F11" s="27"/>
       <c r="G11" s="4"/>
       <c r="H11" s="4"/>
@@ -3196,10 +3196,10 @@
       <c r="C12" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="D12" s="132" t="s">
+      <c r="D12" s="108" t="s">
         <v>223</v>
       </c>
-      <c r="E12" s="133"/>
+      <c r="E12" s="109"/>
       <c r="F12" s="27"/>
       <c r="G12" s="4"/>
       <c r="H12" s="4"/>
@@ -3277,10 +3277,10 @@
       <c r="C13" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="D13" s="132" t="s">
+      <c r="D13" s="108" t="s">
         <v>223</v>
       </c>
-      <c r="E13" s="133"/>
+      <c r="E13" s="109"/>
       <c r="F13" s="27"/>
       <c r="G13" s="4"/>
       <c r="H13" s="4"/>
@@ -3358,10 +3358,10 @@
       <c r="C14" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="D14" s="132" t="s">
+      <c r="D14" s="108" t="s">
         <v>223</v>
       </c>
-      <c r="E14" s="133"/>
+      <c r="E14" s="109"/>
       <c r="F14" s="27"/>
       <c r="G14" s="4"/>
       <c r="H14" s="4"/>
@@ -3439,10 +3439,10 @@
       <c r="C15" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="D15" s="132" t="s">
+      <c r="D15" s="108" t="s">
         <v>223</v>
       </c>
-      <c r="E15" s="133"/>
+      <c r="E15" s="109"/>
       <c r="F15" s="27"/>
       <c r="G15" s="4"/>
       <c r="H15" s="4"/>
@@ -3520,10 +3520,10 @@
       <c r="C16" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="D16" s="132" t="s">
+      <c r="D16" s="108" t="s">
         <v>223</v>
       </c>
-      <c r="E16" s="133"/>
+      <c r="E16" s="109"/>
       <c r="F16" s="27"/>
       <c r="G16" s="4"/>
       <c r="H16" s="4"/>
@@ -3599,8 +3599,8 @@
         <v>26</v>
       </c>
       <c r="C17" s="5"/>
-      <c r="D17" s="134"/>
-      <c r="E17" s="135"/>
+      <c r="D17" s="93"/>
+      <c r="E17" s="94"/>
       <c r="F17" s="7"/>
       <c r="G17" s="4"/>
       <c r="H17" s="4"/>
@@ -3678,9 +3678,9 @@
       <c r="C18" s="29" t="s">
         <v>108</v>
       </c>
-      <c r="D18" s="134"/>
-      <c r="E18" s="135"/>
-      <c r="F18" s="138" t="s">
+      <c r="D18" s="93"/>
+      <c r="E18" s="94"/>
+      <c r="F18" s="97" t="s">
         <v>224</v>
       </c>
       <c r="G18" s="31"/>
@@ -3759,13 +3759,13 @@
       <c r="C19" s="28" t="s">
         <v>20</v>
       </c>
-      <c r="D19" s="134">
+      <c r="D19" s="93">
         <v>44011</v>
       </c>
-      <c r="E19" s="134">
+      <c r="E19" s="93">
         <v>44011</v>
       </c>
-      <c r="F19" s="96" t="s">
+      <c r="F19" s="104" t="s">
         <v>101</v>
       </c>
       <c r="G19" s="30"/>
@@ -3844,13 +3844,13 @@
       <c r="C20" s="28" t="s">
         <v>20</v>
       </c>
-      <c r="D20" s="134">
+      <c r="D20" s="93">
         <v>44011</v>
       </c>
-      <c r="E20" s="134">
+      <c r="E20" s="93">
         <v>44011</v>
       </c>
-      <c r="F20" s="96"/>
+      <c r="F20" s="104"/>
       <c r="G20" s="30"/>
       <c r="H20" s="30"/>
       <c r="I20" s="30"/>
@@ -3927,13 +3927,13 @@
       <c r="C21" s="28" t="s">
         <v>20</v>
       </c>
-      <c r="D21" s="134">
+      <c r="D21" s="93">
         <v>44011</v>
       </c>
-      <c r="E21" s="134">
+      <c r="E21" s="93">
         <v>44012</v>
       </c>
-      <c r="F21" s="96"/>
+      <c r="F21" s="104"/>
       <c r="G21" s="30"/>
       <c r="H21" s="30"/>
       <c r="I21" s="30"/>
@@ -4010,13 +4010,13 @@
       <c r="C22" s="28" t="s">
         <v>20</v>
       </c>
-      <c r="D22" s="134">
+      <c r="D22" s="93">
         <v>44011</v>
       </c>
-      <c r="E22" s="134">
+      <c r="E22" s="93">
         <v>44012</v>
       </c>
-      <c r="F22" s="96"/>
+      <c r="F22" s="104"/>
       <c r="G22" s="30"/>
       <c r="H22" s="30"/>
       <c r="I22" s="30"/>
@@ -4093,13 +4093,13 @@
       <c r="C23" s="28" t="s">
         <v>20</v>
       </c>
-      <c r="D23" s="134">
+      <c r="D23" s="93">
         <v>44011</v>
       </c>
-      <c r="E23" s="134">
+      <c r="E23" s="93">
         <v>44012</v>
       </c>
-      <c r="F23" s="96"/>
+      <c r="F23" s="104"/>
       <c r="G23" s="4"/>
       <c r="H23" s="4"/>
       <c r="I23" s="4"/>
@@ -4176,13 +4176,13 @@
       <c r="C24" s="28" t="s">
         <v>20</v>
       </c>
-      <c r="D24" s="134">
+      <c r="D24" s="93">
         <v>44011</v>
       </c>
-      <c r="E24" s="134">
+      <c r="E24" s="93">
         <v>44012</v>
       </c>
-      <c r="F24" s="96"/>
+      <c r="F24" s="104"/>
       <c r="G24" s="4"/>
       <c r="H24" s="4"/>
       <c r="I24" s="4"/>
@@ -4259,13 +4259,13 @@
       <c r="C25" s="28" t="s">
         <v>20</v>
       </c>
-      <c r="D25" s="134">
+      <c r="D25" s="93">
         <v>44011</v>
       </c>
-      <c r="E25" s="134">
+      <c r="E25" s="93">
         <v>44012</v>
       </c>
-      <c r="F25" s="96"/>
+      <c r="F25" s="104"/>
       <c r="G25" s="4"/>
       <c r="H25" s="4"/>
       <c r="I25" s="4"/>
@@ -4342,13 +4342,13 @@
       <c r="C26" s="28" t="s">
         <v>20</v>
       </c>
-      <c r="D26" s="134">
+      <c r="D26" s="93">
         <v>44013</v>
       </c>
-      <c r="E26" s="134">
+      <c r="E26" s="93">
         <v>44015</v>
       </c>
-      <c r="F26" s="96"/>
+      <c r="F26" s="104"/>
       <c r="G26" s="4"/>
       <c r="H26" s="4"/>
       <c r="I26" s="4"/>
@@ -4425,13 +4425,13 @@
       <c r="C27" s="28" t="s">
         <v>20</v>
       </c>
-      <c r="D27" s="134">
+      <c r="D27" s="93">
         <v>44013</v>
       </c>
-      <c r="E27" s="134">
+      <c r="E27" s="93">
         <v>44015</v>
       </c>
-      <c r="F27" s="96"/>
+      <c r="F27" s="104"/>
       <c r="G27" s="4"/>
       <c r="H27" s="4"/>
       <c r="I27" s="4"/>
@@ -4508,13 +4508,13 @@
       <c r="C28" s="28" t="s">
         <v>20</v>
       </c>
-      <c r="D28" s="134">
+      <c r="D28" s="93">
         <v>44013</v>
       </c>
-      <c r="E28" s="134">
+      <c r="E28" s="93">
         <v>44015</v>
       </c>
-      <c r="F28" s="96"/>
+      <c r="F28" s="104"/>
       <c r="G28" s="4"/>
       <c r="H28" s="4"/>
       <c r="I28" s="4"/>
@@ -4591,13 +4591,13 @@
       <c r="C29" s="28" t="s">
         <v>38</v>
       </c>
-      <c r="D29" s="134">
+      <c r="D29" s="93">
         <v>44013</v>
       </c>
-      <c r="E29" s="134">
+      <c r="E29" s="93">
         <v>44015</v>
       </c>
-      <c r="F29" s="96"/>
+      <c r="F29" s="104"/>
       <c r="G29" s="4"/>
       <c r="H29" s="4"/>
       <c r="I29" s="4"/>
@@ -4674,13 +4674,13 @@
       <c r="C30" s="28" t="s">
         <v>40</v>
       </c>
-      <c r="D30" s="134">
+      <c r="D30" s="93">
         <v>44013</v>
       </c>
-      <c r="E30" s="134">
+      <c r="E30" s="93">
         <v>44015</v>
       </c>
-      <c r="F30" s="99"/>
+      <c r="F30" s="107"/>
       <c r="G30" s="4"/>
       <c r="H30" s="4"/>
       <c r="I30" s="4"/>
@@ -4755,8 +4755,8 @@
         <v>41</v>
       </c>
       <c r="C31" s="5"/>
-      <c r="D31" s="134"/>
-      <c r="E31" s="135"/>
+      <c r="D31" s="93"/>
+      <c r="E31" s="94"/>
       <c r="F31" s="7"/>
       <c r="G31" s="4"/>
       <c r="H31" s="4"/>
@@ -4834,13 +4834,13 @@
       <c r="C32" s="28" t="s">
         <v>43</v>
       </c>
-      <c r="D32" s="134">
+      <c r="D32" s="93">
         <v>44018</v>
       </c>
-      <c r="E32" s="134">
+      <c r="E32" s="93">
         <v>44018</v>
       </c>
-      <c r="F32" s="98" t="s">
+      <c r="F32" s="106" t="s">
         <v>101</v>
       </c>
       <c r="G32" s="4"/>
@@ -4919,13 +4919,13 @@
       <c r="C33" s="28" t="s">
         <v>20</v>
       </c>
-      <c r="D33" s="134">
+      <c r="D33" s="93">
         <v>44019</v>
       </c>
-      <c r="E33" s="134">
+      <c r="E33" s="93">
         <v>44022</v>
       </c>
-      <c r="F33" s="96"/>
+      <c r="F33" s="104"/>
       <c r="G33" s="4"/>
       <c r="H33" s="4"/>
       <c r="I33" s="4"/>
@@ -5002,13 +5002,13 @@
       <c r="C34" s="28" t="s">
         <v>20</v>
       </c>
-      <c r="D34" s="134">
+      <c r="D34" s="93">
         <v>44019</v>
       </c>
-      <c r="E34" s="134">
+      <c r="E34" s="93">
         <v>44022</v>
       </c>
-      <c r="F34" s="96"/>
+      <c r="F34" s="104"/>
       <c r="G34" s="4"/>
       <c r="H34" s="4"/>
       <c r="I34" s="4"/>
@@ -5085,13 +5085,13 @@
       <c r="C35" s="28" t="s">
         <v>20</v>
       </c>
-      <c r="D35" s="134">
+      <c r="D35" s="93">
         <v>44019</v>
       </c>
-      <c r="E35" s="134">
+      <c r="E35" s="93">
         <v>44022</v>
       </c>
-      <c r="F35" s="96"/>
+      <c r="F35" s="104"/>
       <c r="G35" s="4"/>
       <c r="H35" s="4"/>
       <c r="I35" s="4"/>
@@ -5168,13 +5168,13 @@
       <c r="C36" s="28" t="s">
         <v>20</v>
       </c>
-      <c r="D36" s="134">
+      <c r="D36" s="93">
         <v>44019</v>
       </c>
-      <c r="E36" s="134">
+      <c r="E36" s="93">
         <v>44022</v>
       </c>
-      <c r="F36" s="96"/>
+      <c r="F36" s="104"/>
       <c r="G36" s="4"/>
       <c r="H36" s="4"/>
       <c r="I36" s="4"/>
@@ -5251,13 +5251,13 @@
       <c r="C37" s="28" t="s">
         <v>20</v>
       </c>
-      <c r="D37" s="134">
+      <c r="D37" s="93">
         <v>44019</v>
       </c>
-      <c r="E37" s="134">
+      <c r="E37" s="93">
         <v>44022</v>
       </c>
-      <c r="F37" s="96"/>
+      <c r="F37" s="104"/>
       <c r="G37" s="4"/>
       <c r="H37" s="4"/>
       <c r="I37" s="4"/>
@@ -5334,13 +5334,13 @@
       <c r="C38" s="28" t="s">
         <v>20</v>
       </c>
-      <c r="D38" s="134">
+      <c r="D38" s="93">
         <v>44025</v>
       </c>
-      <c r="E38" s="134">
+      <c r="E38" s="93">
         <v>44028</v>
       </c>
-      <c r="F38" s="96"/>
+      <c r="F38" s="104"/>
       <c r="G38" s="4"/>
       <c r="H38" s="4"/>
       <c r="I38" s="4"/>
@@ -5417,13 +5417,13 @@
       <c r="C39" s="28" t="s">
         <v>40</v>
       </c>
-      <c r="D39" s="134">
+      <c r="D39" s="93">
         <v>44025</v>
       </c>
-      <c r="E39" s="134">
+      <c r="E39" s="93">
         <v>44028</v>
       </c>
-      <c r="F39" s="96"/>
+      <c r="F39" s="104"/>
       <c r="G39" s="4"/>
       <c r="H39" s="4"/>
       <c r="I39" s="4"/>
@@ -5500,13 +5500,13 @@
       <c r="C40" s="28" t="s">
         <v>20</v>
       </c>
-      <c r="D40" s="134">
+      <c r="D40" s="93">
         <v>44025</v>
       </c>
-      <c r="E40" s="134">
+      <c r="E40" s="93">
         <v>44028</v>
       </c>
-      <c r="F40" s="96"/>
+      <c r="F40" s="104"/>
       <c r="G40" s="4"/>
       <c r="H40" s="4"/>
       <c r="I40" s="4"/>
@@ -5583,13 +5583,13 @@
       <c r="C41" s="28" t="s">
         <v>20</v>
       </c>
-      <c r="D41" s="134">
+      <c r="D41" s="93">
         <v>44025</v>
       </c>
-      <c r="E41" s="134">
+      <c r="E41" s="93">
         <v>44028</v>
       </c>
-      <c r="F41" s="96"/>
+      <c r="F41" s="104"/>
       <c r="G41" s="4"/>
       <c r="H41" s="4"/>
       <c r="I41" s="4"/>
@@ -5666,13 +5666,13 @@
       <c r="C42" s="28" t="s">
         <v>20</v>
       </c>
-      <c r="D42" s="134">
+      <c r="D42" s="93">
         <v>44025</v>
       </c>
-      <c r="E42" s="134">
+      <c r="E42" s="93">
         <v>44028</v>
       </c>
-      <c r="F42" s="96"/>
+      <c r="F42" s="104"/>
       <c r="G42" s="4"/>
       <c r="H42" s="4"/>
       <c r="I42" s="4"/>
@@ -5749,13 +5749,13 @@
       <c r="C43" s="28" t="s">
         <v>20</v>
       </c>
-      <c r="D43" s="134">
+      <c r="D43" s="93">
         <v>44029</v>
       </c>
-      <c r="E43" s="134">
+      <c r="E43" s="93">
         <v>44029</v>
       </c>
-      <c r="F43" s="99"/>
+      <c r="F43" s="107"/>
       <c r="G43" s="4"/>
       <c r="H43" s="4"/>
       <c r="I43" s="4"/>
@@ -5832,8 +5832,8 @@
       <c r="C44" s="28" t="s">
         <v>54</v>
       </c>
-      <c r="D44" s="134"/>
-      <c r="E44" s="135"/>
+      <c r="D44" s="93"/>
+      <c r="E44" s="94"/>
       <c r="F44" s="27"/>
       <c r="G44" s="4"/>
       <c r="H44" s="4"/>
@@ -5911,9 +5911,9 @@
       <c r="C45" s="28" t="s">
         <v>54</v>
       </c>
-      <c r="D45" s="134"/>
-      <c r="E45" s="135"/>
-      <c r="F45" s="139"/>
+      <c r="D45" s="93"/>
+      <c r="E45" s="94"/>
+      <c r="F45" s="98"/>
       <c r="G45" s="4"/>
       <c r="H45" s="4"/>
       <c r="I45" s="4"/>
@@ -5990,13 +5990,13 @@
       <c r="C46" s="28" t="s">
         <v>57</v>
       </c>
-      <c r="D46" s="134">
+      <c r="D46" s="93">
         <v>44022</v>
       </c>
-      <c r="E46" s="134">
+      <c r="E46" s="93">
         <v>44029</v>
       </c>
-      <c r="F46" s="140" t="s">
+      <c r="F46" s="99" t="s">
         <v>226</v>
       </c>
       <c r="G46" s="4"/>
@@ -6075,13 +6075,13 @@
       <c r="C47" s="28" t="s">
         <v>20</v>
       </c>
-      <c r="D47" s="134">
+      <c r="D47" s="93">
         <v>44022</v>
       </c>
-      <c r="E47" s="134">
+      <c r="E47" s="93">
         <v>44029</v>
       </c>
-      <c r="F47" s="140"/>
+      <c r="F47" s="99"/>
       <c r="G47" s="4"/>
       <c r="H47" s="4"/>
       <c r="I47" s="4"/>
@@ -6158,13 +6158,13 @@
       <c r="C48" s="28" t="s">
         <v>57</v>
       </c>
-      <c r="D48" s="134">
+      <c r="D48" s="93">
         <v>44022</v>
       </c>
-      <c r="E48" s="134">
+      <c r="E48" s="93">
         <v>44029</v>
       </c>
-      <c r="F48" s="140"/>
+      <c r="F48" s="99"/>
       <c r="G48" s="4"/>
       <c r="H48" s="4"/>
       <c r="I48" s="4"/>
@@ -6241,13 +6241,13 @@
       <c r="C49" s="28" t="s">
         <v>40</v>
       </c>
-      <c r="D49" s="134">
+      <c r="D49" s="93">
         <v>44018</v>
       </c>
-      <c r="E49" s="134">
+      <c r="E49" s="93">
         <v>44022</v>
       </c>
-      <c r="F49" s="140"/>
+      <c r="F49" s="99"/>
       <c r="G49" s="4"/>
       <c r="H49" s="4"/>
       <c r="I49" s="4"/>
@@ -6324,13 +6324,13 @@
       <c r="C50" s="28" t="s">
         <v>61</v>
       </c>
-      <c r="D50" s="134">
+      <c r="D50" s="93">
         <v>44029</v>
       </c>
-      <c r="E50" s="134">
+      <c r="E50" s="93">
         <v>44043</v>
       </c>
-      <c r="F50" s="141"/>
+      <c r="F50" s="100"/>
       <c r="G50" s="4"/>
       <c r="H50" s="4"/>
       <c r="I50" s="4"/>
@@ -6407,13 +6407,13 @@
       <c r="C51" s="28" t="s">
         <v>106</v>
       </c>
-      <c r="D51" s="134">
+      <c r="D51" s="93">
         <v>44029</v>
       </c>
-      <c r="E51" s="134">
+      <c r="E51" s="93">
         <v>44043</v>
       </c>
-      <c r="F51" s="98" t="s">
+      <c r="F51" s="106" t="s">
         <v>102</v>
       </c>
       <c r="G51" s="4"/>
@@ -6492,13 +6492,13 @@
       <c r="C52" s="28" t="s">
         <v>106</v>
       </c>
-      <c r="D52" s="134">
+      <c r="D52" s="93">
         <v>44029</v>
       </c>
-      <c r="E52" s="134">
+      <c r="E52" s="93">
         <v>44043</v>
       </c>
-      <c r="F52" s="96"/>
+      <c r="F52" s="104"/>
       <c r="G52" s="4"/>
       <c r="H52" s="4"/>
       <c r="I52" s="4"/>
@@ -6575,13 +6575,13 @@
       <c r="C53" s="28" t="s">
         <v>106</v>
       </c>
-      <c r="D53" s="134">
+      <c r="D53" s="93">
         <v>44029</v>
       </c>
-      <c r="E53" s="134">
+      <c r="E53" s="93">
         <v>44043</v>
       </c>
-      <c r="F53" s="96"/>
+      <c r="F53" s="104"/>
       <c r="G53" s="4"/>
       <c r="H53" s="4"/>
       <c r="I53" s="4"/>
@@ -6658,13 +6658,13 @@
       <c r="C54" s="28" t="s">
         <v>106</v>
       </c>
-      <c r="D54" s="134">
+      <c r="D54" s="93">
         <v>44029</v>
       </c>
-      <c r="E54" s="134">
+      <c r="E54" s="93">
         <v>44043</v>
       </c>
-      <c r="F54" s="96"/>
+      <c r="F54" s="104"/>
       <c r="G54" s="4"/>
       <c r="H54" s="4"/>
       <c r="I54" s="4"/>
@@ -6739,9 +6739,9 @@
         <v>66</v>
       </c>
       <c r="C55" s="28"/>
-      <c r="D55" s="134"/>
-      <c r="E55" s="135"/>
-      <c r="F55" s="96" t="s">
+      <c r="D55" s="93"/>
+      <c r="E55" s="94"/>
+      <c r="F55" s="104" t="s">
         <v>103</v>
       </c>
       <c r="G55" s="4"/>
@@ -6820,13 +6820,13 @@
       <c r="C56" s="28" t="s">
         <v>20</v>
       </c>
-      <c r="D56" s="134">
+      <c r="D56" s="93">
         <v>44029</v>
       </c>
-      <c r="E56" s="134">
+      <c r="E56" s="93">
         <v>44029</v>
       </c>
-      <c r="F56" s="96"/>
+      <c r="F56" s="104"/>
       <c r="G56" s="4"/>
       <c r="H56" s="4"/>
       <c r="I56" s="4"/>
@@ -6903,13 +6903,13 @@
       <c r="C57" s="28" t="s">
         <v>69</v>
       </c>
-      <c r="D57" s="134">
+      <c r="D57" s="93">
         <v>44029</v>
       </c>
-      <c r="E57" s="134">
+      <c r="E57" s="93">
         <v>44029</v>
       </c>
-      <c r="F57" s="96"/>
+      <c r="F57" s="104"/>
       <c r="G57" s="4"/>
       <c r="H57" s="4"/>
       <c r="I57" s="4"/>
@@ -6986,13 +6986,13 @@
       <c r="C58" s="28" t="s">
         <v>20</v>
       </c>
-      <c r="D58" s="134">
+      <c r="D58" s="93">
         <v>44046</v>
       </c>
-      <c r="E58" s="134">
+      <c r="E58" s="93">
         <v>44050</v>
       </c>
-      <c r="F58" s="96"/>
+      <c r="F58" s="104"/>
       <c r="G58" s="4"/>
       <c r="H58" s="4"/>
       <c r="I58" s="4"/>
@@ -7069,13 +7069,13 @@
       <c r="C59" s="28" t="s">
         <v>20</v>
       </c>
-      <c r="D59" s="134">
+      <c r="D59" s="93">
         <v>44046</v>
       </c>
-      <c r="E59" s="134">
+      <c r="E59" s="93">
         <v>44050</v>
       </c>
-      <c r="F59" s="98" t="s">
+      <c r="F59" s="106" t="s">
         <v>102</v>
       </c>
       <c r="G59" s="4"/>
@@ -7154,13 +7154,13 @@
       <c r="C60" s="28" t="s">
         <v>20</v>
       </c>
-      <c r="D60" s="134">
+      <c r="D60" s="93">
         <v>44046</v>
       </c>
-      <c r="E60" s="134">
+      <c r="E60" s="93">
         <v>44050</v>
       </c>
-      <c r="F60" s="96"/>
+      <c r="F60" s="104"/>
       <c r="G60" s="4"/>
       <c r="H60" s="4"/>
       <c r="I60" s="4"/>
@@ -7237,13 +7237,13 @@
       <c r="C61" s="28" t="s">
         <v>20</v>
       </c>
-      <c r="D61" s="134">
+      <c r="D61" s="93">
         <v>44046</v>
       </c>
-      <c r="E61" s="134">
+      <c r="E61" s="93">
         <v>44050</v>
       </c>
-      <c r="F61" s="96"/>
+      <c r="F61" s="104"/>
       <c r="G61" s="4"/>
       <c r="H61" s="4"/>
       <c r="I61" s="4"/>
@@ -7320,13 +7320,13 @@
       <c r="C62" s="28" t="s">
         <v>20</v>
       </c>
-      <c r="D62" s="134">
+      <c r="D62" s="93">
         <v>44046</v>
       </c>
-      <c r="E62" s="134">
+      <c r="E62" s="93">
         <v>44050</v>
       </c>
-      <c r="F62" s="96"/>
+      <c r="F62" s="104"/>
       <c r="G62" s="4"/>
       <c r="H62" s="4"/>
       <c r="I62" s="4"/>
@@ -7403,13 +7403,13 @@
       <c r="C63" s="28" t="s">
         <v>20</v>
       </c>
-      <c r="D63" s="134">
+      <c r="D63" s="93">
         <v>44046</v>
       </c>
-      <c r="E63" s="134">
+      <c r="E63" s="93">
         <v>44050</v>
       </c>
-      <c r="F63" s="99"/>
+      <c r="F63" s="107"/>
       <c r="G63" s="4"/>
       <c r="H63" s="4"/>
       <c r="I63" s="4"/>
@@ -7486,10 +7486,10 @@
       <c r="C64" s="28" t="s">
         <v>20</v>
       </c>
-      <c r="D64" s="134">
+      <c r="D64" s="93">
         <v>44050</v>
       </c>
-      <c r="E64" s="134">
+      <c r="E64" s="93">
         <v>44057</v>
       </c>
       <c r="F64" s="27" t="s">
@@ -7571,13 +7571,13 @@
       <c r="C65" s="28" t="s">
         <v>20</v>
       </c>
-      <c r="D65" s="134">
+      <c r="D65" s="93">
         <v>44050</v>
       </c>
-      <c r="E65" s="134">
+      <c r="E65" s="93">
         <v>44057</v>
       </c>
-      <c r="F65" s="93" t="s">
+      <c r="F65" s="101" t="s">
         <v>101</v>
       </c>
       <c r="G65" s="4"/>
@@ -7656,13 +7656,13 @@
       <c r="C66" s="28" t="s">
         <v>20</v>
       </c>
-      <c r="D66" s="134">
+      <c r="D66" s="93">
         <v>44050</v>
       </c>
-      <c r="E66" s="134">
+      <c r="E66" s="93">
         <v>44057</v>
       </c>
-      <c r="F66" s="94"/>
+      <c r="F66" s="102"/>
       <c r="G66" s="4"/>
       <c r="H66" s="4"/>
       <c r="I66" s="4"/>
@@ -7739,13 +7739,13 @@
       <c r="C67" s="28" t="s">
         <v>80</v>
       </c>
-      <c r="D67" s="134">
+      <c r="D67" s="93">
         <v>44050</v>
       </c>
-      <c r="E67" s="134">
+      <c r="E67" s="93">
         <v>44057</v>
       </c>
-      <c r="F67" s="94"/>
+      <c r="F67" s="102"/>
       <c r="G67" s="4"/>
       <c r="H67" s="4"/>
       <c r="I67" s="4"/>
@@ -7822,13 +7822,13 @@
       <c r="C68" s="28" t="s">
         <v>20</v>
       </c>
-      <c r="D68" s="134">
+      <c r="D68" s="93">
         <v>44050</v>
       </c>
-      <c r="E68" s="134">
+      <c r="E68" s="93">
         <v>44057</v>
       </c>
-      <c r="F68" s="94"/>
+      <c r="F68" s="102"/>
       <c r="G68" s="4"/>
       <c r="H68" s="4"/>
       <c r="I68" s="4"/>
@@ -7905,13 +7905,13 @@
       <c r="C69" s="28" t="s">
         <v>20</v>
       </c>
-      <c r="D69" s="134">
+      <c r="D69" s="93">
         <v>44050</v>
       </c>
-      <c r="E69" s="134">
+      <c r="E69" s="93">
         <v>44057</v>
       </c>
-      <c r="F69" s="94"/>
+      <c r="F69" s="102"/>
       <c r="G69" s="4"/>
       <c r="H69" s="4"/>
       <c r="I69" s="4"/>
@@ -7988,13 +7988,13 @@
       <c r="C70" s="28" t="s">
         <v>20</v>
       </c>
-      <c r="D70" s="134">
+      <c r="D70" s="93">
         <v>44050</v>
       </c>
-      <c r="E70" s="134">
+      <c r="E70" s="93">
         <v>44057</v>
       </c>
-      <c r="F70" s="97"/>
+      <c r="F70" s="105"/>
       <c r="G70" s="4"/>
       <c r="H70" s="4"/>
       <c r="I70" s="4"/>
@@ -8071,10 +8071,10 @@
       <c r="C71" s="28" t="s">
         <v>85</v>
       </c>
-      <c r="D71" s="134">
+      <c r="D71" s="93">
         <v>44050</v>
       </c>
-      <c r="E71" s="134">
+      <c r="E71" s="93">
         <v>44057</v>
       </c>
       <c r="F71" s="27" t="s">
@@ -8154,8 +8154,8 @@
         <v>86</v>
       </c>
       <c r="C72" s="8"/>
-      <c r="D72" s="134"/>
-      <c r="E72" s="135"/>
+      <c r="D72" s="93"/>
+      <c r="E72" s="94"/>
       <c r="F72" s="8"/>
       <c r="G72" s="4"/>
       <c r="H72" s="4"/>
@@ -8233,10 +8233,10 @@
       <c r="C73" s="28" t="s">
         <v>20</v>
       </c>
-      <c r="D73" s="134">
+      <c r="D73" s="93">
         <v>44057</v>
       </c>
-      <c r="E73" s="134">
+      <c r="E73" s="93">
         <v>44057</v>
       </c>
       <c r="F73" s="27" t="s">
@@ -8316,8 +8316,8 @@
         <v>88</v>
       </c>
       <c r="C74" s="8"/>
-      <c r="D74" s="134"/>
-      <c r="E74" s="135"/>
+      <c r="D74" s="93"/>
+      <c r="E74" s="94"/>
       <c r="F74" s="8"/>
       <c r="G74" s="4"/>
       <c r="H74" s="4"/>
@@ -8395,13 +8395,13 @@
       <c r="C75" s="28" t="s">
         <v>20</v>
       </c>
-      <c r="D75" s="134">
+      <c r="D75" s="93">
         <v>44057</v>
       </c>
-      <c r="E75" s="134">
+      <c r="E75" s="93">
         <v>44057</v>
       </c>
-      <c r="F75" s="93" t="s">
+      <c r="F75" s="101" t="s">
         <v>101</v>
       </c>
       <c r="G75" s="4"/>
@@ -8480,13 +8480,13 @@
       <c r="C76" s="28" t="s">
         <v>20</v>
       </c>
-      <c r="D76" s="134">
+      <c r="D76" s="93">
         <v>44057</v>
       </c>
-      <c r="E76" s="134">
+      <c r="E76" s="93">
         <v>44057</v>
       </c>
-      <c r="F76" s="94"/>
+      <c r="F76" s="102"/>
       <c r="G76" s="4"/>
       <c r="H76" s="4"/>
       <c r="I76" s="4"/>
@@ -8561,9 +8561,9 @@
         <v>91</v>
       </c>
       <c r="C77" s="40"/>
-      <c r="D77" s="136"/>
-      <c r="E77" s="137"/>
-      <c r="F77" s="95"/>
+      <c r="D77" s="95"/>
+      <c r="E77" s="96"/>
+      <c r="F77" s="103"/>
       <c r="G77" s="41"/>
       <c r="H77" s="41"/>
       <c r="I77" s="41"/>
@@ -8936,8 +8936,8 @@
   </sheetPr>
   <dimension ref="B3:AL17"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -8956,45 +8956,45 @@
   </cols>
   <sheetData>
     <row r="3" spans="2:38" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B3" s="124" t="s">
+      <c r="B3" s="134" t="s">
         <v>155</v>
       </c>
-      <c r="C3" s="124"/>
-      <c r="D3" s="124"/>
-      <c r="E3" s="124"/>
-      <c r="F3" s="124"/>
-      <c r="G3" s="124"/>
-      <c r="H3" s="124"/>
-      <c r="I3" s="124"/>
-      <c r="J3" s="124"/>
-      <c r="K3" s="124"/>
-      <c r="L3" s="124"/>
-      <c r="M3" s="124"/>
-      <c r="N3" s="124"/>
-      <c r="O3" s="124"/>
-      <c r="P3" s="124"/>
-      <c r="Q3" s="124"/>
-      <c r="R3" s="124"/>
-      <c r="S3" s="124"/>
-      <c r="T3" s="124"/>
-      <c r="U3" s="124"/>
-      <c r="V3" s="124"/>
-      <c r="W3" s="124"/>
-      <c r="X3" s="124"/>
-      <c r="Y3" s="124"/>
-      <c r="Z3" s="124"/>
-      <c r="AA3" s="124"/>
-      <c r="AB3" s="124"/>
-      <c r="AC3" s="124"/>
-      <c r="AD3" s="124"/>
-      <c r="AE3" s="124"/>
-      <c r="AF3" s="124"/>
-      <c r="AG3" s="124"/>
-      <c r="AH3" s="124"/>
-      <c r="AI3" s="124"/>
-      <c r="AJ3" s="124"/>
-      <c r="AK3" s="124"/>
-      <c r="AL3" s="124"/>
+      <c r="C3" s="134"/>
+      <c r="D3" s="134"/>
+      <c r="E3" s="134"/>
+      <c r="F3" s="134"/>
+      <c r="G3" s="134"/>
+      <c r="H3" s="134"/>
+      <c r="I3" s="134"/>
+      <c r="J3" s="134"/>
+      <c r="K3" s="134"/>
+      <c r="L3" s="134"/>
+      <c r="M3" s="134"/>
+      <c r="N3" s="134"/>
+      <c r="O3" s="134"/>
+      <c r="P3" s="134"/>
+      <c r="Q3" s="134"/>
+      <c r="R3" s="134"/>
+      <c r="S3" s="134"/>
+      <c r="T3" s="134"/>
+      <c r="U3" s="134"/>
+      <c r="V3" s="134"/>
+      <c r="W3" s="134"/>
+      <c r="X3" s="134"/>
+      <c r="Y3" s="134"/>
+      <c r="Z3" s="134"/>
+      <c r="AA3" s="134"/>
+      <c r="AB3" s="134"/>
+      <c r="AC3" s="134"/>
+      <c r="AD3" s="134"/>
+      <c r="AE3" s="134"/>
+      <c r="AF3" s="134"/>
+      <c r="AG3" s="134"/>
+      <c r="AH3" s="134"/>
+      <c r="AI3" s="134"/>
+      <c r="AJ3" s="134"/>
+      <c r="AK3" s="134"/>
+      <c r="AL3" s="134"/>
     </row>
     <row r="4" spans="2:38" s="46" customFormat="1" ht="66" x14ac:dyDescent="0.2">
       <c r="B4" s="56" t="s">
@@ -9021,53 +9021,53 @@
       <c r="I4" s="56" t="s">
         <v>144</v>
       </c>
-      <c r="J4" s="123" t="s">
+      <c r="J4" s="133" t="s">
         <v>94</v>
       </c>
-      <c r="K4" s="123"/>
-      <c r="L4" s="123"/>
-      <c r="M4" s="123"/>
-      <c r="N4" s="123" t="s">
+      <c r="K4" s="133"/>
+      <c r="L4" s="133"/>
+      <c r="M4" s="133"/>
+      <c r="N4" s="133" t="s">
         <v>95</v>
       </c>
-      <c r="O4" s="123"/>
-      <c r="P4" s="123"/>
-      <c r="Q4" s="123"/>
-      <c r="R4" s="123" t="s">
+      <c r="O4" s="133"/>
+      <c r="P4" s="133"/>
+      <c r="Q4" s="133"/>
+      <c r="R4" s="133" t="s">
         <v>4</v>
       </c>
-      <c r="S4" s="123"/>
-      <c r="T4" s="123"/>
-      <c r="U4" s="123"/>
-      <c r="V4" s="123" t="s">
+      <c r="S4" s="133"/>
+      <c r="T4" s="133"/>
+      <c r="U4" s="133"/>
+      <c r="V4" s="133" t="s">
         <v>5</v>
       </c>
-      <c r="W4" s="123"/>
-      <c r="X4" s="123"/>
-      <c r="Y4" s="123"/>
-      <c r="Z4" s="123" t="s">
+      <c r="W4" s="133"/>
+      <c r="X4" s="133"/>
+      <c r="Y4" s="133"/>
+      <c r="Z4" s="133" t="s">
         <v>6</v>
       </c>
-      <c r="AA4" s="123"/>
-      <c r="AB4" s="123"/>
-      <c r="AC4" s="123"/>
-      <c r="AD4" s="123" t="s">
+      <c r="AA4" s="133"/>
+      <c r="AB4" s="133"/>
+      <c r="AC4" s="133"/>
+      <c r="AD4" s="133" t="s">
         <v>7</v>
       </c>
-      <c r="AE4" s="123"/>
-      <c r="AF4" s="123"/>
-      <c r="AG4" s="123"/>
-      <c r="AH4" s="123" t="s">
+      <c r="AE4" s="133"/>
+      <c r="AF4" s="133"/>
+      <c r="AG4" s="133"/>
+      <c r="AH4" s="133" t="s">
         <v>149</v>
       </c>
-      <c r="AI4" s="123"/>
-      <c r="AJ4" s="123"/>
-      <c r="AK4" s="123"/>
-      <c r="AL4" s="123" t="s">
+      <c r="AI4" s="133"/>
+      <c r="AJ4" s="133"/>
+      <c r="AK4" s="133"/>
+      <c r="AL4" s="133" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="5" spans="2:38" ht="27" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:38" ht="30" x14ac:dyDescent="0.3">
       <c r="B5" s="51"/>
       <c r="C5" s="51"/>
       <c r="D5" s="51" t="s">
@@ -9162,7 +9162,7 @@
       <c r="AK5" s="55" t="s">
         <v>17</v>
       </c>
-      <c r="AL5" s="123"/>
+      <c r="AL5" s="133"/>
     </row>
     <row r="6" spans="2:38" ht="63.75" x14ac:dyDescent="0.2">
       <c r="B6" s="61">
@@ -9219,7 +9219,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="7" spans="2:38" ht="69.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:38" ht="76.5" x14ac:dyDescent="0.2">
       <c r="B7" s="58">
         <v>2</v>
       </c>
@@ -9803,7 +9803,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB412EC3-FDBD-4291-A6C2-E112048D0D60}">
   <dimension ref="A4:CU25"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="AA17" sqref="AA17"/>
     </sheetView>
   </sheetViews>
@@ -10145,26 +10145,26 @@
       </c>
     </row>
     <row r="7" spans="1:99" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A7" s="125">
+      <c r="A7" s="135">
         <v>2</v>
       </c>
-      <c r="B7" s="128" t="s">
+      <c r="B7" s="138" t="s">
         <v>164</v>
       </c>
       <c r="C7" s="70" t="s">
         <v>165</v>
       </c>
-      <c r="D7" s="128" t="s">
+      <c r="D7" s="138" t="s">
         <v>168</v>
       </c>
     </row>
     <row r="8" spans="1:99" ht="51" x14ac:dyDescent="0.25">
-      <c r="A8" s="126"/>
-      <c r="B8" s="129"/>
+      <c r="A8" s="136"/>
+      <c r="B8" s="139"/>
       <c r="C8" s="70" t="s">
         <v>166</v>
       </c>
-      <c r="D8" s="129"/>
+      <c r="D8" s="139"/>
       <c r="J8" s="71">
         <v>1</v>
       </c>
@@ -10197,50 +10197,50 @@
       </c>
     </row>
     <row r="9" spans="1:99" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="127"/>
-      <c r="B9" s="130"/>
+      <c r="A9" s="137"/>
+      <c r="B9" s="140"/>
       <c r="C9" s="69" t="s">
         <v>167</v>
       </c>
-      <c r="D9" s="130"/>
+      <c r="D9" s="140"/>
     </row>
     <row r="10" spans="1:99" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A10" s="125">
+      <c r="A10" s="135">
         <v>3</v>
       </c>
-      <c r="B10" s="128" t="s">
+      <c r="B10" s="138" t="s">
         <v>169</v>
       </c>
       <c r="C10" s="70" t="s">
         <v>170</v>
       </c>
-      <c r="D10" s="128" t="s">
+      <c r="D10" s="138" t="s">
         <v>176</v>
       </c>
     </row>
     <row r="11" spans="1:99" x14ac:dyDescent="0.25">
-      <c r="A11" s="126"/>
-      <c r="B11" s="129"/>
+      <c r="A11" s="136"/>
+      <c r="B11" s="139"/>
       <c r="C11" s="70" t="s">
         <v>171</v>
       </c>
-      <c r="D11" s="129"/>
+      <c r="D11" s="139"/>
     </row>
     <row r="12" spans="1:99" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A12" s="126"/>
-      <c r="B12" s="129"/>
+      <c r="A12" s="136"/>
+      <c r="B12" s="139"/>
       <c r="C12" s="70" t="s">
         <v>172</v>
       </c>
-      <c r="D12" s="129"/>
+      <c r="D12" s="139"/>
     </row>
     <row r="13" spans="1:99" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A13" s="126"/>
-      <c r="B13" s="129"/>
+      <c r="A13" s="136"/>
+      <c r="B13" s="139"/>
       <c r="C13" s="70" t="s">
         <v>173</v>
       </c>
-      <c r="D13" s="129"/>
+      <c r="D13" s="139"/>
       <c r="T13" s="71">
         <v>1</v>
       </c>
@@ -10378,32 +10378,32 @@
       </c>
     </row>
     <row r="14" spans="1:99" ht="63.75" x14ac:dyDescent="0.25">
-      <c r="A14" s="126"/>
-      <c r="B14" s="129"/>
+      <c r="A14" s="136"/>
+      <c r="B14" s="139"/>
       <c r="C14" s="70" t="s">
         <v>174</v>
       </c>
-      <c r="D14" s="129"/>
+      <c r="D14" s="139"/>
     </row>
     <row r="15" spans="1:99" ht="77.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="127"/>
-      <c r="B15" s="130"/>
+      <c r="A15" s="137"/>
+      <c r="B15" s="140"/>
       <c r="C15" s="69" t="s">
         <v>175</v>
       </c>
-      <c r="D15" s="130"/>
+      <c r="D15" s="140"/>
     </row>
     <row r="16" spans="1:99" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A16" s="125">
+      <c r="A16" s="135">
         <v>4</v>
       </c>
-      <c r="B16" s="128" t="s">
+      <c r="B16" s="138" t="s">
         <v>177</v>
       </c>
       <c r="C16" s="70" t="s">
         <v>178</v>
       </c>
-      <c r="D16" s="128" t="s">
+      <c r="D16" s="138" t="s">
         <v>187</v>
       </c>
       <c r="BM16" s="71">
@@ -10513,74 +10513,74 @@
       </c>
     </row>
     <row r="17" spans="1:4" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A17" s="126"/>
-      <c r="B17" s="129"/>
+      <c r="A17" s="136"/>
+      <c r="B17" s="139"/>
       <c r="C17" s="70" t="s">
         <v>179</v>
       </c>
-      <c r="D17" s="129"/>
+      <c r="D17" s="139"/>
     </row>
     <row r="18" spans="1:4" ht="51" x14ac:dyDescent="0.25">
-      <c r="A18" s="126"/>
-      <c r="B18" s="129"/>
+      <c r="A18" s="136"/>
+      <c r="B18" s="139"/>
       <c r="C18" s="70" t="s">
         <v>180</v>
       </c>
-      <c r="D18" s="129"/>
+      <c r="D18" s="139"/>
     </row>
     <row r="19" spans="1:4" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A19" s="126"/>
-      <c r="B19" s="129"/>
+      <c r="A19" s="136"/>
+      <c r="B19" s="139"/>
       <c r="C19" s="70" t="s">
         <v>181</v>
       </c>
-      <c r="D19" s="129"/>
+      <c r="D19" s="139"/>
     </row>
     <row r="20" spans="1:4" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A20" s="126"/>
-      <c r="B20" s="129"/>
+      <c r="A20" s="136"/>
+      <c r="B20" s="139"/>
       <c r="C20" s="70" t="s">
         <v>182</v>
       </c>
-      <c r="D20" s="129"/>
+      <c r="D20" s="139"/>
     </row>
     <row r="21" spans="1:4" ht="63.75" x14ac:dyDescent="0.25">
-      <c r="A21" s="126"/>
-      <c r="B21" s="129"/>
+      <c r="A21" s="136"/>
+      <c r="B21" s="139"/>
       <c r="C21" s="70" t="s">
         <v>183</v>
       </c>
-      <c r="D21" s="129"/>
+      <c r="D21" s="139"/>
     </row>
     <row r="22" spans="1:4" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A22" s="126"/>
-      <c r="B22" s="129"/>
+      <c r="A22" s="136"/>
+      <c r="B22" s="139"/>
       <c r="C22" s="70" t="s">
         <v>184</v>
       </c>
-      <c r="D22" s="129"/>
+      <c r="D22" s="139"/>
     </row>
     <row r="23" spans="1:4" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A23" s="126"/>
-      <c r="B23" s="129"/>
+      <c r="A23" s="136"/>
+      <c r="B23" s="139"/>
       <c r="C23" s="70" t="s">
         <v>185</v>
       </c>
-      <c r="D23" s="129"/>
+      <c r="D23" s="139"/>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A24" s="126"/>
-      <c r="B24" s="129"/>
+      <c r="A24" s="136"/>
+      <c r="B24" s="139"/>
       <c r="C24" s="70" t="s">
         <v>186</v>
       </c>
-      <c r="D24" s="129"/>
+      <c r="D24" s="139"/>
     </row>
     <row r="25" spans="1:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="127"/>
-      <c r="B25" s="130"/>
+      <c r="A25" s="137"/>
+      <c r="B25" s="140"/>
       <c r="C25" s="69"/>
-      <c r="D25" s="130"/>
+      <c r="D25" s="140"/>
     </row>
   </sheetData>
   <mergeCells count="9">
@@ -10603,8 +10603,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6A47ADFD-91FC-49AA-9922-4AB26CF2E007}">
   <dimension ref="B2:F40"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+    <sheetView topLeftCell="A11" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="A22" sqref="A22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10931,12 +10931,12 @@
       <c r="F28" s="78"/>
     </row>
     <row r="31" spans="2:6" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B31" s="131" t="s">
+      <c r="B31" s="141" t="s">
         <v>188</v>
       </c>
-      <c r="C31" s="131"/>
-      <c r="D31" s="131"/>
-      <c r="E31" s="131"/>
+      <c r="C31" s="141"/>
+      <c r="D31" s="141"/>
+      <c r="E31" s="141"/>
     </row>
     <row r="32" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B32" s="79" t="s">
